--- a/data/pca/factorExposure/factorExposure_2011-05-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +741,60 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.004231847272768475</v>
+        <v>0.01228511932387765</v>
       </c>
       <c r="C2">
-        <v>0.007370992051579474</v>
+        <v>-0.004865680935741698</v>
       </c>
       <c r="D2">
-        <v>-0.04668104756869692</v>
+        <v>-0.02680569511822773</v>
       </c>
       <c r="E2">
-        <v>0.005292042519940397</v>
+        <v>-0.01615206994855407</v>
       </c>
       <c r="F2">
-        <v>-0.008757137042273166</v>
+        <v>0.002517527700937754</v>
       </c>
       <c r="G2">
-        <v>0.03576461401513825</v>
+        <v>0.01300642175489654</v>
       </c>
       <c r="H2">
-        <v>-0.003437839644149733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02193674508400407</v>
+      </c>
+      <c r="I2">
+        <v>-0.03358971374120599</v>
+      </c>
+      <c r="J2">
+        <v>0.02738664774499538</v>
+      </c>
+      <c r="K2">
+        <v>0.03163526973532813</v>
+      </c>
+      <c r="L2">
+        <v>0.02069866476364043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +817,60 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.09217931724721029</v>
+        <v>0.1113073397620037</v>
       </c>
       <c r="C4">
-        <v>-0.04906370634221286</v>
+        <v>0.06728469639439283</v>
       </c>
       <c r="D4">
-        <v>-0.03149159457719572</v>
+        <v>-0.02464332599707373</v>
       </c>
       <c r="E4">
-        <v>-0.04348515828784039</v>
+        <v>-0.01795423339976876</v>
       </c>
       <c r="F4">
-        <v>-0.0343323053494015</v>
+        <v>0.1548136776921959</v>
       </c>
       <c r="G4">
-        <v>0.02444452593349357</v>
+        <v>-0.01300728870125625</v>
       </c>
       <c r="H4">
-        <v>-0.006797297784099648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.01311959308648577</v>
+      </c>
+      <c r="I4">
+        <v>0.01869621541039935</v>
+      </c>
+      <c r="J4">
+        <v>-0.03293573060801278</v>
+      </c>
+      <c r="K4">
+        <v>-0.09037481268644014</v>
+      </c>
+      <c r="L4">
+        <v>0.03636014535542001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +893,440 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1331546499269709</v>
+        <v>0.133494604989879</v>
       </c>
       <c r="C6">
-        <v>-0.02331696152239513</v>
+        <v>0.0465025057839213</v>
       </c>
       <c r="D6">
-        <v>-0.04645796055116684</v>
+        <v>0.001725547566350813</v>
       </c>
       <c r="E6">
-        <v>-0.04576806074957081</v>
+        <v>-0.001346316964278215</v>
       </c>
       <c r="F6">
-        <v>0.1254749570414993</v>
+        <v>-0.01444804998129703</v>
       </c>
       <c r="G6">
-        <v>-0.09688776439634419</v>
+        <v>-0.06930767928936907</v>
       </c>
       <c r="H6">
-        <v>0.1056453148431933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.07356900899599458</v>
+      </c>
+      <c r="I6">
+        <v>0.26005116091314</v>
+      </c>
+      <c r="J6">
+        <v>-0.3253728507848946</v>
+      </c>
+      <c r="K6">
+        <v>0.09793908908200587</v>
+      </c>
+      <c r="L6">
+        <v>0.2024601081956424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.08294503664645705</v>
+        <v>0.07776450781064873</v>
       </c>
       <c r="C7">
-        <v>-0.04652323392332486</v>
+        <v>0.06271936298113484</v>
       </c>
       <c r="D7">
-        <v>-0.04789628744400167</v>
+        <v>-0.0315249758752103</v>
       </c>
       <c r="E7">
-        <v>-0.02857472020853226</v>
+        <v>-0.01567890415623702</v>
       </c>
       <c r="F7">
-        <v>0.02979631133055691</v>
+        <v>0.03060143951809893</v>
       </c>
       <c r="G7">
-        <v>0.001588316589374619</v>
+        <v>-0.008376017396498826</v>
       </c>
       <c r="H7">
-        <v>0.02262455101069728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.012689152897455</v>
+      </c>
+      <c r="I7">
+        <v>0.009451831979277325</v>
+      </c>
+      <c r="J7">
+        <v>0.03571599211790564</v>
+      </c>
+      <c r="K7">
+        <v>-0.1172833488249194</v>
+      </c>
+      <c r="L7">
+        <v>-0.02218039974447036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03978248220368118</v>
+        <v>0.04537428041932171</v>
       </c>
       <c r="C8">
-        <v>-0.001870398105155628</v>
+        <v>0.01702180335200851</v>
       </c>
       <c r="D8">
-        <v>-0.05730980419919173</v>
+        <v>-0.008056391093741663</v>
       </c>
       <c r="E8">
-        <v>-0.05700056219069554</v>
+        <v>-0.01770345085994895</v>
       </c>
       <c r="F8">
-        <v>-0.03870364598950011</v>
+        <v>0.1394985901210368</v>
       </c>
       <c r="G8">
-        <v>0.08133113219670314</v>
+        <v>0.0116402453542699</v>
       </c>
       <c r="H8">
-        <v>0.09837717497669216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.05315296349199491</v>
+      </c>
+      <c r="I8">
+        <v>0.06684732832076083</v>
+      </c>
+      <c r="J8">
+        <v>-0.01037063426762871</v>
+      </c>
+      <c r="K8">
+        <v>-0.08340026016085497</v>
+      </c>
+      <c r="L8">
+        <v>0.06447268100182411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.08294369986189826</v>
+        <v>0.08517687733972273</v>
       </c>
       <c r="C9">
-        <v>-0.04495288009673001</v>
+        <v>0.05875984213581326</v>
       </c>
       <c r="D9">
-        <v>-0.03283068715797878</v>
+        <v>-0.02379790496386654</v>
       </c>
       <c r="E9">
-        <v>-0.02785979371845428</v>
+        <v>0.0009414584909193121</v>
       </c>
       <c r="F9">
-        <v>-0.01936677266695771</v>
+        <v>0.1356750839089288</v>
       </c>
       <c r="G9">
-        <v>0.03364813572061572</v>
+        <v>-0.008113268040038753</v>
       </c>
       <c r="H9">
-        <v>0.03906575023425716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.007043995062633339</v>
+      </c>
+      <c r="I9">
+        <v>0.01922800957816784</v>
+      </c>
+      <c r="J9">
+        <v>-0.007704650929322825</v>
+      </c>
+      <c r="K9">
+        <v>-0.05802632540467247</v>
+      </c>
+      <c r="L9">
+        <v>0.04081937788089962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.0441647119854501</v>
+        <v>0.1046335196807284</v>
       </c>
       <c r="C10">
-        <v>0.1419924892252813</v>
+        <v>-0.16235125778936</v>
       </c>
       <c r="D10">
-        <v>-0.08182437025623991</v>
+        <v>-0.05334595848852776</v>
       </c>
       <c r="E10">
-        <v>-0.03672435993240295</v>
+        <v>-0.02906457975898585</v>
       </c>
       <c r="F10">
-        <v>0.04016670443224306</v>
+        <v>-0.01186144780218132</v>
       </c>
       <c r="G10">
-        <v>0.001201035603859586</v>
+        <v>-0.01850519821152054</v>
       </c>
       <c r="H10">
-        <v>0.0006919044934892639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.03828944209799998</v>
+      </c>
+      <c r="I10">
+        <v>0.007282085370812864</v>
+      </c>
+      <c r="J10">
+        <v>-0.02360830690671255</v>
+      </c>
+      <c r="K10">
+        <v>-0.001591682420778898</v>
+      </c>
+      <c r="L10">
+        <v>-0.06018643562662616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07121012537333574</v>
+        <v>0.07383505026111484</v>
       </c>
       <c r="C11">
-        <v>-0.06458487017361489</v>
+        <v>0.06871806043710739</v>
       </c>
       <c r="D11">
-        <v>-0.005064941604751997</v>
+        <v>-0.007065380459935252</v>
       </c>
       <c r="E11">
-        <v>0.007388512406975834</v>
+        <v>0.02466520406339079</v>
       </c>
       <c r="F11">
-        <v>-0.00640195884899388</v>
+        <v>0.1331596033449468</v>
       </c>
       <c r="G11">
-        <v>0.1211777387292775</v>
+        <v>0.01254127964254053</v>
       </c>
       <c r="H11">
-        <v>0.04821216461285011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.06112018467080274</v>
+      </c>
+      <c r="I11">
+        <v>-0.03089289372808066</v>
+      </c>
+      <c r="J11">
+        <v>0.09062308253774955</v>
+      </c>
+      <c r="K11">
+        <v>0.02468059160454747</v>
+      </c>
+      <c r="L11">
+        <v>0.03145901834477986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06539090957313608</v>
+        <v>0.06791462812884488</v>
       </c>
       <c r="C12">
-        <v>-0.03662241666231888</v>
+        <v>0.06128966937309053</v>
       </c>
       <c r="D12">
-        <v>0.005068480113055034</v>
+        <v>-0.01291956364779001</v>
       </c>
       <c r="E12">
-        <v>-0.03685258518690958</v>
+        <v>0.02467831814912467</v>
       </c>
       <c r="F12">
-        <v>-0.002141633841506684</v>
+        <v>0.1387021317266999</v>
       </c>
       <c r="G12">
-        <v>0.100531120538346</v>
+        <v>0.02437245871292168</v>
       </c>
       <c r="H12">
-        <v>0.07435708671187688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.05710996122683296</v>
+      </c>
+      <c r="I12">
+        <v>0.01453075865944726</v>
+      </c>
+      <c r="J12">
+        <v>0.09199205440953871</v>
+      </c>
+      <c r="K12">
+        <v>0.006617049834590973</v>
+      </c>
+      <c r="L12">
+        <v>0.06288168223347719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.05710699531547726</v>
+        <v>0.04319468058062133</v>
       </c>
       <c r="C13">
-        <v>-0.005122907284952358</v>
+        <v>0.03013957754612543</v>
       </c>
       <c r="D13">
-        <v>-0.00626662018381318</v>
+        <v>-0.009398245644370499</v>
       </c>
       <c r="E13">
-        <v>-0.0323831550247994</v>
+        <v>-0.02220065843486002</v>
       </c>
       <c r="F13">
-        <v>-0.05329305036950945</v>
+        <v>0.04903945473528009</v>
       </c>
       <c r="G13">
-        <v>0.008281520745627859</v>
+        <v>-0.007622694034248222</v>
       </c>
       <c r="H13">
-        <v>0.06358729014802501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01077339883077785</v>
+      </c>
+      <c r="I13">
+        <v>0.0221294293469509</v>
+      </c>
+      <c r="J13">
+        <v>0.004428644750068654</v>
+      </c>
+      <c r="K13">
+        <v>-0.04613650714667813</v>
+      </c>
+      <c r="L13">
+        <v>-0.01550947516299741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.04961745820888549</v>
+        <v>0.03864139025274558</v>
       </c>
       <c r="C14">
-        <v>-0.01383946351797573</v>
+        <v>0.02513120928829223</v>
       </c>
       <c r="D14">
-        <v>-0.02395755074742412</v>
+        <v>-0.01397086714857394</v>
       </c>
       <c r="E14">
-        <v>-0.01289024294472059</v>
+        <v>0.01164122482596125</v>
       </c>
       <c r="F14">
-        <v>-0.0006510696925508096</v>
+        <v>0.06090142658433535</v>
       </c>
       <c r="G14">
-        <v>0.005538825303148483</v>
+        <v>0.004677347528775278</v>
       </c>
       <c r="H14">
-        <v>0.09897561232020538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03216446170191863</v>
+      </c>
+      <c r="I14">
+        <v>0.004601812963323376</v>
+      </c>
+      <c r="J14">
+        <v>-0.04188280878061967</v>
+      </c>
+      <c r="K14">
+        <v>-0.09164030653963653</v>
+      </c>
+      <c r="L14">
+        <v>0.0314894930310085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03590280295122951</v>
+        <v>0.02485943433544769</v>
       </c>
       <c r="C15">
-        <v>0.00604193162750401</v>
+        <v>0.01480532767528301</v>
       </c>
       <c r="D15">
-        <v>-0.009132643972046913</v>
+        <v>0.005139571374900159</v>
       </c>
       <c r="E15">
-        <v>-0.008996462669852321</v>
+        <v>-0.04802393024840806</v>
       </c>
       <c r="F15">
-        <v>-0.01987177142115559</v>
+        <v>0.00625014066260596</v>
       </c>
       <c r="G15">
-        <v>-0.002240057181273346</v>
+        <v>-0.03490077498824556</v>
       </c>
       <c r="H15">
-        <v>0.0223773798021479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.0002626720507974228</v>
+      </c>
+      <c r="I15">
+        <v>-0.002641832273317708</v>
+      </c>
+      <c r="J15">
+        <v>-0.05483084658080138</v>
+      </c>
+      <c r="K15">
+        <v>-0.06083596570608862</v>
+      </c>
+      <c r="L15">
+        <v>-0.0178262257561659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.0722877965211319</v>
+        <v>0.07774517276900256</v>
       </c>
       <c r="C16">
-        <v>-0.07390945363907626</v>
+        <v>0.07278914626037539</v>
       </c>
       <c r="D16">
-        <v>-0.01761542401234373</v>
+        <v>-0.003620630537442987</v>
       </c>
       <c r="E16">
-        <v>-0.03437231645945735</v>
+        <v>0.01818156564110899</v>
       </c>
       <c r="F16">
-        <v>-0.03558679118033484</v>
+        <v>0.1290198808916775</v>
       </c>
       <c r="G16">
-        <v>0.07727574304039235</v>
+        <v>0.0223475408726556</v>
       </c>
       <c r="H16">
-        <v>0.05297115495803804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.05332794506821888</v>
+      </c>
+      <c r="I16">
+        <v>-0.02643484886245627</v>
+      </c>
+      <c r="J16">
+        <v>0.1023838593883848</v>
+      </c>
+      <c r="K16">
+        <v>-0.0006055129752508136</v>
+      </c>
+      <c r="L16">
+        <v>0.05689321125893981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1349,22 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1387,22 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1425,288 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.05122193534312912</v>
+        <v>0.04546566311998304</v>
       </c>
       <c r="C20">
-        <v>-0.03497958248368733</v>
+        <v>0.0354887785522213</v>
       </c>
       <c r="D20">
-        <v>-0.008493330577988407</v>
+        <v>-0.01500398411117077</v>
       </c>
       <c r="E20">
-        <v>-0.01069904277383116</v>
+        <v>-0.02276463390874401</v>
       </c>
       <c r="F20">
-        <v>-0.009980738545604986</v>
+        <v>0.06174960662201391</v>
       </c>
       <c r="G20">
-        <v>0.03144022218709053</v>
+        <v>0.01268977020147604</v>
       </c>
       <c r="H20">
-        <v>0.0505661256193376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.00434016234273023</v>
+      </c>
+      <c r="I20">
+        <v>0.03483346745619845</v>
+      </c>
+      <c r="J20">
+        <v>-0.01451552382694567</v>
+      </c>
+      <c r="K20">
+        <v>-0.07735682833872594</v>
+      </c>
+      <c r="L20">
+        <v>0.008076156730806161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02079083638465961</v>
+        <v>0.02368957642978678</v>
       </c>
       <c r="C21">
-        <v>-0.03014970336719155</v>
+        <v>0.02212259892701829</v>
       </c>
       <c r="D21">
-        <v>0.008718762175993348</v>
+        <v>-0.002298326258823084</v>
       </c>
       <c r="E21">
-        <v>-0.03330904083272759</v>
+        <v>-0.003004637476776214</v>
       </c>
       <c r="F21">
-        <v>0.08490366226058919</v>
+        <v>0.06151228274475663</v>
       </c>
       <c r="G21">
-        <v>-0.01227206279871146</v>
+        <v>-0.04451318137141146</v>
       </c>
       <c r="H21">
-        <v>-0.06159147496008575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.09257142497528055</v>
+      </c>
+      <c r="I21">
+        <v>0.05431041117043087</v>
+      </c>
+      <c r="J21">
+        <v>-0.0632697196091989</v>
+      </c>
+      <c r="K21">
+        <v>-0.1054182426507959</v>
+      </c>
+      <c r="L21">
+        <v>-0.08233163690835481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.04000952276654555</v>
+        <v>0.05099036357295377</v>
       </c>
       <c r="C22">
-        <v>-0.04369586623211139</v>
+        <v>0.02471429932406219</v>
       </c>
       <c r="D22">
-        <v>0.02673582861874472</v>
+        <v>0.0894423251023149</v>
       </c>
       <c r="E22">
-        <v>-0.5370455570585846</v>
+        <v>-0.6537138096327488</v>
       </c>
       <c r="F22">
-        <v>-0.2155815496200911</v>
+        <v>-0.05880185896473959</v>
       </c>
       <c r="G22">
-        <v>-0.1875956693407024</v>
+        <v>0.1345592115233461</v>
       </c>
       <c r="H22">
-        <v>-0.2665697158004295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.07771545731752434</v>
+      </c>
+      <c r="I22">
+        <v>0.0150850268333289</v>
+      </c>
+      <c r="J22">
+        <v>0.03743180059411622</v>
+      </c>
+      <c r="K22">
+        <v>0.04647202332136299</v>
+      </c>
+      <c r="L22">
+        <v>0.0007692364323555036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.04003562437702688</v>
+        <v>0.05143334931056819</v>
       </c>
       <c r="C23">
-        <v>-0.04356392096336646</v>
+        <v>0.02538309552969652</v>
       </c>
       <c r="D23">
-        <v>0.02548897461106137</v>
+        <v>0.08973517728196062</v>
       </c>
       <c r="E23">
-        <v>-0.5369285058362119</v>
+        <v>-0.6554797906105404</v>
       </c>
       <c r="F23">
-        <v>-0.2167387640633168</v>
+        <v>-0.05601677274799391</v>
       </c>
       <c r="G23">
-        <v>-0.1884756429791495</v>
+        <v>0.1353241459022133</v>
       </c>
       <c r="H23">
-        <v>-0.2656257651074084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.07468553194018822</v>
+      </c>
+      <c r="I23">
+        <v>0.0160277324765287</v>
+      </c>
+      <c r="J23">
+        <v>0.03606705684577809</v>
+      </c>
+      <c r="K23">
+        <v>0.04910065071886092</v>
+      </c>
+      <c r="L23">
+        <v>0.002805895385617316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08242004113261887</v>
+        <v>0.08252714828289601</v>
       </c>
       <c r="C24">
-        <v>-0.05347272766018655</v>
+        <v>0.06625076659601301</v>
       </c>
       <c r="D24">
-        <v>-0.01501224972514158</v>
+        <v>-0.009544741928644001</v>
       </c>
       <c r="E24">
-        <v>-0.03556045118640307</v>
+        <v>0.01452746028053062</v>
       </c>
       <c r="F24">
-        <v>-0.01123807183434596</v>
+        <v>0.1266668906272906</v>
       </c>
       <c r="G24">
-        <v>0.08595105788931394</v>
+        <v>0.02195761412688389</v>
       </c>
       <c r="H24">
-        <v>0.05557976292110959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.07152082303433285</v>
+      </c>
+      <c r="I24">
+        <v>-0.04171013357901409</v>
+      </c>
+      <c r="J24">
+        <v>0.09177071714546445</v>
+      </c>
+      <c r="K24">
+        <v>0.02904870220462877</v>
+      </c>
+      <c r="L24">
+        <v>0.05327315430346418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07269830501845512</v>
+        <v>0.07901938244501225</v>
       </c>
       <c r="C25">
-        <v>-0.02464001464566751</v>
+        <v>0.04969292858928531</v>
       </c>
       <c r="D25">
-        <v>-0.01891553010536385</v>
+        <v>-0.01896825944688548</v>
       </c>
       <c r="E25">
-        <v>-0.03039871455155863</v>
+        <v>0.02617852193718214</v>
       </c>
       <c r="F25">
-        <v>-0.002849510514156786</v>
+        <v>0.1279145674444104</v>
       </c>
       <c r="G25">
-        <v>0.08498349920920163</v>
+        <v>0.02729563640500844</v>
       </c>
       <c r="H25">
-        <v>0.0593490832419156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.04732965470398866</v>
+      </c>
+      <c r="I25">
+        <v>-0.02153431287184192</v>
+      </c>
+      <c r="J25">
+        <v>0.08840508732250568</v>
+      </c>
+      <c r="K25">
+        <v>0.0186374045741782</v>
+      </c>
+      <c r="L25">
+        <v>0.07149795691756991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05220480462152333</v>
+        <v>0.04249871117918664</v>
       </c>
       <c r="C26">
-        <v>-0.0360191832300432</v>
+        <v>0.01012542700585133</v>
       </c>
       <c r="D26">
-        <v>-0.03322714855096503</v>
+        <v>-0.001210672368394489</v>
       </c>
       <c r="E26">
-        <v>0.006085267639011325</v>
+        <v>-0.01073789075364525</v>
       </c>
       <c r="F26">
-        <v>-0.02034661304070485</v>
+        <v>0.04509841689944721</v>
       </c>
       <c r="G26">
-        <v>-0.006600712535673948</v>
+        <v>0.03287448581896556</v>
       </c>
       <c r="H26">
-        <v>0.06875239640293603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.002737499736596275</v>
+      </c>
+      <c r="I26">
+        <v>-0.008739540730878058</v>
+      </c>
+      <c r="J26">
+        <v>-0.05313139592573733</v>
+      </c>
+      <c r="K26">
+        <v>-0.1014547585983142</v>
+      </c>
+      <c r="L26">
+        <v>-0.0314575852623937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1729,364 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.08401784547750153</v>
+        <v>0.1340614916823483</v>
       </c>
       <c r="C28">
-        <v>0.2997081928950179</v>
+        <v>-0.2941573175948594</v>
       </c>
       <c r="D28">
-        <v>-0.06671577370839968</v>
+        <v>0.01039729101925423</v>
       </c>
       <c r="E28">
-        <v>0.009011039936528662</v>
+        <v>0.008545432525027407</v>
       </c>
       <c r="F28">
-        <v>0.03682054062359001</v>
+        <v>0.01502925108889408</v>
       </c>
       <c r="G28">
-        <v>-0.006089147560833368</v>
+        <v>-0.005934170907782612</v>
       </c>
       <c r="H28">
-        <v>-0.05642933392555231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.01373190896386324</v>
+      </c>
+      <c r="I28">
+        <v>0.01826237063961325</v>
+      </c>
+      <c r="J28">
+        <v>0.01804257992761114</v>
+      </c>
+      <c r="K28">
+        <v>-0.002610827091263924</v>
+      </c>
+      <c r="L28">
+        <v>-0.01322481793535882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05348860632376973</v>
+        <v>0.03941936232092589</v>
       </c>
       <c r="C29">
-        <v>-0.01008684851802026</v>
+        <v>0.02456409613873042</v>
       </c>
       <c r="D29">
-        <v>-0.01507657706943979</v>
+        <v>-0.02491880311020128</v>
       </c>
       <c r="E29">
-        <v>-0.03240901424481595</v>
+        <v>0.0004593821028484586</v>
       </c>
       <c r="F29">
-        <v>-0.03249507272734308</v>
+        <v>0.06081152635736162</v>
       </c>
       <c r="G29">
-        <v>-0.002663683429414779</v>
+        <v>0.029630704402689</v>
       </c>
       <c r="H29">
-        <v>0.03403259000485529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.01392321132985487</v>
+      </c>
+      <c r="I29">
+        <v>0.01113205215740275</v>
+      </c>
+      <c r="J29">
+        <v>-0.0414548278763693</v>
+      </c>
+      <c r="K29">
+        <v>-0.09081103544751261</v>
+      </c>
+      <c r="L29">
+        <v>0.01573049627968074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.123285914666157</v>
+        <v>0.1053265512837047</v>
       </c>
       <c r="C30">
-        <v>-0.03251946944947847</v>
+        <v>0.05747654309603716</v>
       </c>
       <c r="D30">
-        <v>-0.0614409354499519</v>
+        <v>0.01953453841668779</v>
       </c>
       <c r="E30">
-        <v>-0.1163001984750875</v>
+        <v>0.01571639379353451</v>
       </c>
       <c r="F30">
-        <v>0.02978616225661779</v>
+        <v>0.2030821440031933</v>
       </c>
       <c r="G30">
-        <v>0.1900394522716417</v>
+        <v>0.1220454513901391</v>
       </c>
       <c r="H30">
-        <v>0.01197933118895555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1773092592176473</v>
+      </c>
+      <c r="I30">
+        <v>0.2175127371797581</v>
+      </c>
+      <c r="J30">
+        <v>0.03436700314226124</v>
+      </c>
+      <c r="K30">
+        <v>-0.05399004112056579</v>
+      </c>
+      <c r="L30">
+        <v>0.08013977723760513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05339004140969211</v>
+        <v>0.04007841741308541</v>
       </c>
       <c r="C31">
-        <v>-0.0195496398704688</v>
+        <v>0.04332444277921864</v>
       </c>
       <c r="D31">
-        <v>0.01063824210490964</v>
+        <v>-0.003846071811956891</v>
       </c>
       <c r="E31">
-        <v>-0.007901332405514423</v>
+        <v>-0.005087109433428274</v>
       </c>
       <c r="F31">
-        <v>-0.02702530615294962</v>
+        <v>0.02496662535132182</v>
       </c>
       <c r="G31">
-        <v>-0.03075221539022024</v>
+        <v>0.01529600744541822</v>
       </c>
       <c r="H31">
-        <v>0.03914749671151769</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03546126099516825</v>
+      </c>
+      <c r="I31">
+        <v>-0.02603658577108061</v>
+      </c>
+      <c r="J31">
+        <v>-0.001467444242370067</v>
+      </c>
+      <c r="K31">
+        <v>-0.03220090506074349</v>
+      </c>
+      <c r="L31">
+        <v>0.03665658061888349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.0282539792204642</v>
+        <v>0.04825736857974656</v>
       </c>
       <c r="C32">
-        <v>0.02066944558194284</v>
+        <v>0.002651023493033476</v>
       </c>
       <c r="D32">
-        <v>0.004854296613929224</v>
+        <v>0.03081314136083388</v>
       </c>
       <c r="E32">
-        <v>-0.07391841645788523</v>
+        <v>0.02454546565545334</v>
       </c>
       <c r="F32">
-        <v>-0.08127685199627038</v>
+        <v>0.06627652620521837</v>
       </c>
       <c r="G32">
-        <v>0.04686884839034577</v>
+        <v>-0.01221026959590611</v>
       </c>
       <c r="H32">
-        <v>0.02316244283007454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.005860793303914797</v>
+      </c>
+      <c r="I32">
+        <v>-0.03268359019331319</v>
+      </c>
+      <c r="J32">
+        <v>0.002318541176396244</v>
+      </c>
+      <c r="K32">
+        <v>-0.08363773544756613</v>
+      </c>
+      <c r="L32">
+        <v>0.01416712524374131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1140643900873696</v>
+        <v>0.09716055221101851</v>
       </c>
       <c r="C33">
-        <v>-0.02548191246970214</v>
+        <v>0.05616088534264775</v>
       </c>
       <c r="D33">
-        <v>0.003327518436071879</v>
+        <v>0.0005736492937230439</v>
       </c>
       <c r="E33">
-        <v>-0.004093995395508864</v>
+        <v>0.02568611679261334</v>
       </c>
       <c r="F33">
-        <v>-0.05873817215203745</v>
+        <v>0.08250501943560624</v>
       </c>
       <c r="G33">
-        <v>0.03514542045891909</v>
+        <v>0.007290581353292964</v>
       </c>
       <c r="H33">
-        <v>0.08030065331816344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.004738353560034338</v>
+      </c>
+      <c r="I33">
+        <v>-0.009167746240505521</v>
+      </c>
+      <c r="J33">
+        <v>-0.006893162045466013</v>
+      </c>
+      <c r="K33">
+        <v>-0.02375828773213849</v>
+      </c>
+      <c r="L33">
+        <v>0.02855773046796815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.05977418798277734</v>
+        <v>0.06504900696920393</v>
       </c>
       <c r="C34">
-        <v>-0.05759346328818653</v>
+        <v>0.05415684776578647</v>
       </c>
       <c r="D34">
-        <v>-0.002152684292332611</v>
+        <v>-0.007883302967348522</v>
       </c>
       <c r="E34">
-        <v>-0.01706353788782204</v>
+        <v>0.02325863829260657</v>
       </c>
       <c r="F34">
-        <v>-0.01140534395187051</v>
+        <v>0.1163661639767221</v>
       </c>
       <c r="G34">
-        <v>0.06378182439602667</v>
+        <v>0.01516704857568118</v>
       </c>
       <c r="H34">
-        <v>0.04945317801102592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.03736647188564828</v>
+      </c>
+      <c r="I34">
+        <v>-0.02662091094357686</v>
+      </c>
+      <c r="J34">
+        <v>0.08444087974145585</v>
+      </c>
+      <c r="K34">
+        <v>-0.03372432174267147</v>
+      </c>
+      <c r="L34">
+        <v>0.04721856597414231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04692713705238261</v>
+        <v>0.02243133273339638</v>
       </c>
       <c r="C35">
-        <v>-0.02099533832118457</v>
+        <v>0.02159587741511208</v>
       </c>
       <c r="D35">
-        <v>0.00996217915970395</v>
+        <v>-0.004219825520426901</v>
       </c>
       <c r="E35">
-        <v>-0.01006530556575862</v>
+        <v>0.005689624985978574</v>
       </c>
       <c r="F35">
-        <v>0.02657004811885065</v>
+        <v>0.03110864454448635</v>
       </c>
       <c r="G35">
-        <v>0.02002533126734536</v>
+        <v>0.02066686005050678</v>
       </c>
       <c r="H35">
-        <v>0.06884581826393142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.02113096150415624</v>
+      </c>
+      <c r="I35">
+        <v>0.0190436650147118</v>
+      </c>
+      <c r="J35">
+        <v>0.02885063946823559</v>
+      </c>
+      <c r="K35">
+        <v>-0.07906794948976283</v>
+      </c>
+      <c r="L35">
+        <v>0.01324951660914289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03565341624685042</v>
+        <v>0.02648483751449386</v>
       </c>
       <c r="C36">
-        <v>-0.009501569573942832</v>
+        <v>0.0132561284790922</v>
       </c>
       <c r="D36">
-        <v>-0.02127620453985301</v>
+        <v>-0.001175460651149819</v>
       </c>
       <c r="E36">
-        <v>-0.02605353775048446</v>
+        <v>-0.01155205138797379</v>
       </c>
       <c r="F36">
-        <v>-0.01014196015476621</v>
+        <v>0.0662946354068394</v>
       </c>
       <c r="G36">
-        <v>0.0151879743768576</v>
+        <v>0.01713958962747518</v>
       </c>
       <c r="H36">
-        <v>0.0726628513670919</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.01016023338955184</v>
+      </c>
+      <c r="I36">
+        <v>0.01271200491139437</v>
+      </c>
+      <c r="J36">
+        <v>-0.03741770283815954</v>
+      </c>
+      <c r="K36">
+        <v>-0.02732215765690263</v>
+      </c>
+      <c r="L36">
+        <v>0.01983428227848601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2109,174 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.04850452421512113</v>
+        <v>0.0249911501921549</v>
       </c>
       <c r="C38">
-        <v>-0.02384494108312224</v>
+        <v>0.03552832066099249</v>
       </c>
       <c r="D38">
-        <v>0.008112001951629881</v>
+        <v>-0.008311322104764807</v>
       </c>
       <c r="E38">
-        <v>-0.01934438769635163</v>
+        <v>-0.01931115213602366</v>
       </c>
       <c r="F38">
-        <v>-0.007210612918212202</v>
+        <v>-0.04708911457444773</v>
       </c>
       <c r="G38">
-        <v>0.03928543548628613</v>
+        <v>0.02893324309050275</v>
       </c>
       <c r="H38">
-        <v>-0.02838707988678491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.00858452836599633</v>
+      </c>
+      <c r="I38">
+        <v>0.01011788298718871</v>
+      </c>
+      <c r="J38">
+        <v>0.001312886472229572</v>
+      </c>
+      <c r="K38">
+        <v>-0.04177941290600388</v>
+      </c>
+      <c r="L38">
+        <v>-0.0786536977518577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.1049327772146884</v>
+        <v>0.1082091537493522</v>
       </c>
       <c r="C39">
-        <v>-0.06652998772050539</v>
+        <v>0.08355660110284398</v>
       </c>
       <c r="D39">
-        <v>0.0035822693638142</v>
+        <v>-0.007246341517441359</v>
       </c>
       <c r="E39">
-        <v>-0.03545783834307292</v>
+        <v>0.09148239626883023</v>
       </c>
       <c r="F39">
-        <v>-0.01240932729579582</v>
+        <v>0.1566050753651241</v>
       </c>
       <c r="G39">
-        <v>0.121280056657849</v>
+        <v>0.1058488143902089</v>
       </c>
       <c r="H39">
-        <v>0.01427736826469895</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.07949499435209291</v>
+      </c>
+      <c r="I39">
+        <v>0.01255815239843825</v>
+      </c>
+      <c r="J39">
+        <v>0.2138171243641225</v>
+      </c>
+      <c r="K39">
+        <v>0.03806573697444031</v>
+      </c>
+      <c r="L39">
+        <v>0.07786224790995325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.04985613334664409</v>
+        <v>0.03300852855784116</v>
       </c>
       <c r="C40">
-        <v>-0.01921609516792035</v>
+        <v>0.05636259806010084</v>
       </c>
       <c r="D40">
-        <v>0.03716492221709112</v>
+        <v>-0.006637529641378143</v>
       </c>
       <c r="E40">
-        <v>-0.1053369818487754</v>
+        <v>-0.03774005551055953</v>
       </c>
       <c r="F40">
-        <v>-0.02033521802665092</v>
+        <v>0.09970373124719417</v>
       </c>
       <c r="G40">
-        <v>0.1441847437549434</v>
+        <v>0.003183807541498712</v>
       </c>
       <c r="H40">
-        <v>0.1163112638833807</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.09620362587141817</v>
+      </c>
+      <c r="I40">
+        <v>0.0137589568887111</v>
+      </c>
+      <c r="J40">
+        <v>-0.05209283683068598</v>
+      </c>
+      <c r="K40">
+        <v>-0.02887091598647046</v>
+      </c>
+      <c r="L40">
+        <v>-0.1260762320988027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.04642792950817785</v>
+        <v>0.03637358020084704</v>
       </c>
       <c r="C41">
-        <v>-0.03906834578462888</v>
+        <v>0.03232078986650187</v>
       </c>
       <c r="D41">
-        <v>-0.0005820984379496603</v>
+        <v>-0.01769311408499853</v>
       </c>
       <c r="E41">
-        <v>0.01218699085666003</v>
+        <v>0.0166513811526072</v>
       </c>
       <c r="F41">
-        <v>-0.01702491473252809</v>
+        <v>0.01754360281815747</v>
       </c>
       <c r="G41">
-        <v>0.02953896528147259</v>
+        <v>0.0225628975589468</v>
       </c>
       <c r="H41">
-        <v>0.01659097140161027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.004580710367324889</v>
+      </c>
+      <c r="I41">
+        <v>0.0001596635345141286</v>
+      </c>
+      <c r="J41">
+        <v>0.01845481745965846</v>
+      </c>
+      <c r="K41">
+        <v>-0.05644015842694614</v>
+      </c>
+      <c r="L41">
+        <v>-0.008934113832931303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2299,98 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.06701578299322362</v>
+        <v>0.05129203712753092</v>
       </c>
       <c r="C43">
-        <v>-0.0331334604360481</v>
+        <v>0.03392208837888148</v>
       </c>
       <c r="D43">
-        <v>-0.02075702503623796</v>
+        <v>-0.01282163263799991</v>
       </c>
       <c r="E43">
-        <v>-0.01854670534771032</v>
+        <v>-0.01384298403883013</v>
       </c>
       <c r="F43">
-        <v>-0.01094300694523992</v>
+        <v>0.0085707629598691</v>
       </c>
       <c r="G43">
-        <v>0.001466376804853649</v>
+        <v>0.04817530677825958</v>
       </c>
       <c r="H43">
-        <v>-0.008675811460550763</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.02455477804185853</v>
+      </c>
+      <c r="I43">
+        <v>0.02179998476981516</v>
+      </c>
+      <c r="J43">
+        <v>0.04374765094625702</v>
+      </c>
+      <c r="K43">
+        <v>-0.04573857427879122</v>
+      </c>
+      <c r="L43">
+        <v>0.02386084124643388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.05364160782372095</v>
+        <v>0.1009143204857789</v>
       </c>
       <c r="C44">
-        <v>-0.0266478007847158</v>
+        <v>0.07586295051154082</v>
       </c>
       <c r="D44">
-        <v>-0.08865458249117142</v>
+        <v>-0.0388097561447489</v>
       </c>
       <c r="E44">
-        <v>-0.05798244076281454</v>
+        <v>-0.09216842703930545</v>
       </c>
       <c r="F44">
-        <v>-0.01555179665801433</v>
+        <v>0.1736783258259252</v>
       </c>
       <c r="G44">
-        <v>0.1154146003477659</v>
+        <v>-0.002498627675425085</v>
       </c>
       <c r="H44">
-        <v>0.0286209889813674</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.05710510311066344</v>
+      </c>
+      <c r="I44">
+        <v>-0.02884351175189738</v>
+      </c>
+      <c r="J44">
+        <v>-0.005090698819910501</v>
+      </c>
+      <c r="K44">
+        <v>-0.09394528932034503</v>
+      </c>
+      <c r="L44">
+        <v>-0.08126859325554359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2413,440 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04329234231574089</v>
+        <v>0.03622101189518043</v>
       </c>
       <c r="C46">
-        <v>-0.04865677058590537</v>
+        <v>0.03275753629085044</v>
       </c>
       <c r="D46">
-        <v>-0.01732849327926672</v>
+        <v>-0.02640874840187164</v>
       </c>
       <c r="E46">
-        <v>-0.04784619354520947</v>
+        <v>-0.04048792937573874</v>
       </c>
       <c r="F46">
-        <v>-0.02298467393014602</v>
+        <v>0.03763124126956285</v>
       </c>
       <c r="G46">
-        <v>0.01132848239442787</v>
+        <v>0.0158475963608089</v>
       </c>
       <c r="H46">
-        <v>0.04600569863597421</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.04085007670340544</v>
+      </c>
+      <c r="I46">
+        <v>-0.02883941693239645</v>
+      </c>
+      <c r="J46">
+        <v>-0.04156154741643712</v>
+      </c>
+      <c r="K46">
+        <v>-0.1209106033190367</v>
+      </c>
+      <c r="L46">
+        <v>0.04258452158868303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04512890600296829</v>
+        <v>0.04169606284476373</v>
       </c>
       <c r="C47">
-        <v>-0.01396169729951179</v>
+        <v>0.0246519451740588</v>
       </c>
       <c r="D47">
-        <v>-0.004660783759282641</v>
+        <v>-0.005254002406860556</v>
       </c>
       <c r="E47">
-        <v>-0.06909717595659727</v>
+        <v>-0.0189910138276411</v>
       </c>
       <c r="F47">
-        <v>-0.003966493568943328</v>
+        <v>0.03576631512648707</v>
       </c>
       <c r="G47">
-        <v>-0.02232949567332427</v>
+        <v>0.0008516903302435186</v>
       </c>
       <c r="H47">
-        <v>0.03078249626385803</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01292596612703025</v>
+      </c>
+      <c r="I47">
+        <v>0.02633465267219959</v>
+      </c>
+      <c r="J47">
+        <v>-0.02825041535592436</v>
+      </c>
+      <c r="K47">
+        <v>-0.05062332304061586</v>
+      </c>
+      <c r="L47">
+        <v>-0.009659940011708373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04592836215602518</v>
+        <v>0.04235230818533164</v>
       </c>
       <c r="C48">
-        <v>-0.007763493842315516</v>
+        <v>0.01430030579143209</v>
       </c>
       <c r="D48">
-        <v>0.003867016023368511</v>
+        <v>-0.007585512430030022</v>
       </c>
       <c r="E48">
-        <v>-0.03650833171342496</v>
+        <v>-0.003632223667755833</v>
       </c>
       <c r="F48">
-        <v>-0.01886806555971457</v>
+        <v>0.0663623792729089</v>
       </c>
       <c r="G48">
-        <v>-0.008213171208318212</v>
+        <v>-0.004722697086028931</v>
       </c>
       <c r="H48">
-        <v>0.06216502055429227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.03990737545106199</v>
+      </c>
+      <c r="I48">
+        <v>0.007771954575479729</v>
+      </c>
+      <c r="J48">
+        <v>-0.01827723109241767</v>
+      </c>
+      <c r="K48">
+        <v>-0.04561462112172113</v>
+      </c>
+      <c r="L48">
+        <v>0.03786865319863988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2328963937090186</v>
+        <v>0.22490365604032</v>
       </c>
       <c r="C49">
-        <v>-0.1104443277314209</v>
+        <v>0.06078351693237369</v>
       </c>
       <c r="D49">
-        <v>-0.03997793002208475</v>
+        <v>-0.08515200948210599</v>
       </c>
       <c r="E49">
-        <v>0.04813061569211289</v>
+        <v>0.03983873269988913</v>
       </c>
       <c r="F49">
-        <v>0.1696525109434919</v>
+        <v>-0.2287301742203906</v>
       </c>
       <c r="G49">
-        <v>-0.00287876137322158</v>
+        <v>-0.08896278876412153</v>
       </c>
       <c r="H49">
-        <v>-0.15960703188339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.2001885709460335</v>
+      </c>
+      <c r="I49">
+        <v>-0.01185601672752894</v>
+      </c>
+      <c r="J49">
+        <v>0.1057191343315548</v>
+      </c>
+      <c r="K49">
+        <v>0.1671293689897548</v>
+      </c>
+      <c r="L49">
+        <v>0.02563122338283185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05514255925068785</v>
+        <v>0.04494880618911707</v>
       </c>
       <c r="C50">
-        <v>-0.02549335218128916</v>
+        <v>0.02977262313188916</v>
       </c>
       <c r="D50">
-        <v>0.007170601603930508</v>
+        <v>-0.001619388968356836</v>
       </c>
       <c r="E50">
-        <v>-0.01682114044641554</v>
+        <v>0.0006055220642230081</v>
       </c>
       <c r="F50">
-        <v>-0.04884112560838492</v>
+        <v>0.04421440871999619</v>
       </c>
       <c r="G50">
-        <v>-0.0375027694875992</v>
+        <v>0.0358573118089864</v>
       </c>
       <c r="H50">
-        <v>0.05545832556586609</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02689270013428053</v>
+      </c>
+      <c r="I50">
+        <v>-0.01357740331799209</v>
+      </c>
+      <c r="J50">
+        <v>-0.02313849354331168</v>
+      </c>
+      <c r="K50">
+        <v>-0.04231673090554985</v>
+      </c>
+      <c r="L50">
+        <v>0.04009641042814663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.02953079721828848</v>
+        <v>0.02367107988696145</v>
       </c>
       <c r="C51">
-        <v>-0.01247092136282002</v>
+        <v>0.0006356031418693728</v>
       </c>
       <c r="D51">
-        <v>-0.005717319726473075</v>
+        <v>-0.01573455060707858</v>
       </c>
       <c r="E51">
-        <v>0.006046252907176669</v>
+        <v>-0.001637714368479553</v>
       </c>
       <c r="F51">
-        <v>0.003234462574787319</v>
+        <v>-0.02246155968334822</v>
       </c>
       <c r="G51">
-        <v>0.008556801130797041</v>
+        <v>-0.01059549598724215</v>
       </c>
       <c r="H51">
-        <v>-0.04043078614551595</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.006709302282267217</v>
+      </c>
+      <c r="I51">
+        <v>0.009825209529399382</v>
+      </c>
+      <c r="J51">
+        <v>0.06324362890329377</v>
+      </c>
+      <c r="K51">
+        <v>0.02826302398677137</v>
+      </c>
+      <c r="L51">
+        <v>0.02257147466318357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.05312191779377926</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.02598685230314021</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.001921708341594101</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.005301663404978708</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02296493945215696</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.07638705576573385</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.03188172597367287</v>
+      </c>
+      <c r="I52">
+        <v>-0.04779786750971206</v>
+      </c>
+      <c r="J52">
+        <v>-0.04300187082346204</v>
+      </c>
+      <c r="K52">
+        <v>0.04169510508931443</v>
+      </c>
+      <c r="L52">
+        <v>-0.0004205556534308295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1650035392535725</v>
+        <v>0.1610691942532307</v>
       </c>
       <c r="C53">
-        <v>-0.005461942885710271</v>
+        <v>0.03841177428804151</v>
       </c>
       <c r="D53">
-        <v>-0.0208112196947458</v>
+        <v>-0.02561672677026952</v>
       </c>
       <c r="E53">
-        <v>0.09858406549839761</v>
+        <v>-0.0003163404433360624</v>
       </c>
       <c r="F53">
-        <v>-0.219256463033132</v>
+        <v>-0.06269486948606448</v>
       </c>
       <c r="G53">
-        <v>-0.02582376754539822</v>
+        <v>0.1527597723892314</v>
       </c>
       <c r="H53">
-        <v>0.06920547389139743</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1896266812998957</v>
+      </c>
+      <c r="I53">
+        <v>-0.1640038018420544</v>
+      </c>
+      <c r="J53">
+        <v>-0.08254049425571817</v>
+      </c>
+      <c r="K53">
+        <v>0.04488791701212886</v>
+      </c>
+      <c r="L53">
+        <v>0.000787279661748476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.04883773468488715</v>
+        <v>0.05557770947333835</v>
       </c>
       <c r="C54">
-        <v>-0.01229269239307959</v>
+        <v>0.04176520025931023</v>
       </c>
       <c r="D54">
-        <v>-0.02026900088076667</v>
+        <v>-0.01216854850226912</v>
       </c>
       <c r="E54">
-        <v>-0.04928660100510859</v>
+        <v>-0.0172533436314831</v>
       </c>
       <c r="F54">
-        <v>-0.02673729313994823</v>
+        <v>0.1234843008766947</v>
       </c>
       <c r="G54">
-        <v>0.04046407175785349</v>
+        <v>-0.02343155253924696</v>
       </c>
       <c r="H54">
-        <v>0.08479319940518258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.02947164898542813</v>
+      </c>
+      <c r="I54">
+        <v>0.03845561687619289</v>
+      </c>
+      <c r="J54">
+        <v>-0.07692685912005982</v>
+      </c>
+      <c r="K54">
+        <v>-0.1369052564683646</v>
+      </c>
+      <c r="L54">
+        <v>-0.00109769128435614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.0927008607277704</v>
+        <v>0.08976036695655931</v>
       </c>
       <c r="C55">
-        <v>-0.006947706421558667</v>
+        <v>0.0367317464567179</v>
       </c>
       <c r="D55">
-        <v>-0.01910122921843151</v>
+        <v>-0.02146393907051605</v>
       </c>
       <c r="E55">
-        <v>0.02725353867742948</v>
+        <v>0.01929262504333705</v>
       </c>
       <c r="F55">
-        <v>-0.1761588446069573</v>
+        <v>0.01068821854615598</v>
       </c>
       <c r="G55">
-        <v>-0.02284188979740905</v>
+        <v>0.07723380199149486</v>
       </c>
       <c r="H55">
-        <v>0.1066074423585657</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1213022525727876</v>
+      </c>
+      <c r="I55">
+        <v>-0.1086273594877458</v>
+      </c>
+      <c r="J55">
+        <v>-0.03204541302078342</v>
+      </c>
+      <c r="K55">
+        <v>-0.001113656987737488</v>
+      </c>
+      <c r="L55">
+        <v>0.005376982600519928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1607173173300442</v>
+        <v>0.1559580907130525</v>
       </c>
       <c r="C56">
-        <v>0.003312752920868187</v>
+        <v>0.0568822900358912</v>
       </c>
       <c r="D56">
-        <v>-0.01079664153029023</v>
+        <v>-0.04644698439063163</v>
       </c>
       <c r="E56">
-        <v>0.09507796993122367</v>
+        <v>0.017525263296552</v>
       </c>
       <c r="F56">
-        <v>-0.215339682756418</v>
+        <v>-0.03417729048320322</v>
       </c>
       <c r="G56">
-        <v>-0.06093741879662437</v>
+        <v>0.13912548198177</v>
       </c>
       <c r="H56">
-        <v>0.08144244868993457</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1627441507131179</v>
+      </c>
+      <c r="I56">
+        <v>-0.1621487211792301</v>
+      </c>
+      <c r="J56">
+        <v>-0.05099140895041003</v>
+      </c>
+      <c r="K56">
+        <v>0.03629094384834722</v>
+      </c>
+      <c r="L56">
+        <v>-0.02824194703299134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2869,1694 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.02804071173634449</v>
+        <v>0.0484951425508706</v>
       </c>
       <c r="C58">
-        <v>-0.04011103194627452</v>
+        <v>0.03935050032708282</v>
       </c>
       <c r="D58">
-        <v>0.02011045179744908</v>
+        <v>0.006215546816187457</v>
       </c>
       <c r="E58">
-        <v>-0.3714284445943637</v>
+        <v>-0.0840826253001028</v>
       </c>
       <c r="F58">
-        <v>0.4123274919848482</v>
+        <v>0.01734617414822242</v>
       </c>
       <c r="G58">
-        <v>-0.1429732847780111</v>
+        <v>0.029710706130768</v>
       </c>
       <c r="H58">
-        <v>0.48663766079205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1436729835999561</v>
+      </c>
+      <c r="I58">
+        <v>0.1121819549918281</v>
+      </c>
+      <c r="J58">
+        <v>0.1319882676959235</v>
+      </c>
+      <c r="K58">
+        <v>-0.145984806521612</v>
+      </c>
+      <c r="L58">
+        <v>0.3453745828069033</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1734864254415951</v>
+        <v>0.2075239615849947</v>
       </c>
       <c r="C59">
-        <v>0.4117058363342578</v>
+        <v>-0.2993780417513051</v>
       </c>
       <c r="D59">
-        <v>-0.07961359536491507</v>
+        <v>-0.01415134074024901</v>
       </c>
       <c r="E59">
-        <v>0.02214264021885252</v>
+        <v>0.04533531139332157</v>
       </c>
       <c r="F59">
-        <v>-0.02973609129124096</v>
+        <v>0.03460484972627324</v>
       </c>
       <c r="G59">
-        <v>0.06529644163012398</v>
+        <v>-0.03797843400939619</v>
       </c>
       <c r="H59">
-        <v>-0.03184979152246328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1027752200970252</v>
+      </c>
+      <c r="I59">
+        <v>-0.04655320039186357</v>
+      </c>
+      <c r="J59">
+        <v>0.0619747026382062</v>
+      </c>
+      <c r="K59">
+        <v>0.05777132470889174</v>
+      </c>
+      <c r="L59">
+        <v>-0.0950414044246672</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2623096015589281</v>
+        <v>0.2385607713562568</v>
       </c>
       <c r="C60">
-        <v>-0.05184866732976964</v>
+        <v>0.09848998582000905</v>
       </c>
       <c r="D60">
-        <v>-0.07419108271265518</v>
+        <v>-0.1076562220588862</v>
       </c>
       <c r="E60">
-        <v>0.02876177941382143</v>
+        <v>0.04132370534841704</v>
       </c>
       <c r="F60">
-        <v>0.06091534216969544</v>
+        <v>-0.14476902385241</v>
       </c>
       <c r="G60">
-        <v>-0.07064599661437009</v>
+        <v>-0.01449158215429196</v>
       </c>
       <c r="H60">
-        <v>-0.1691472359467052</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.04910994819336528</v>
+      </c>
+      <c r="I60">
+        <v>0.05358113483418695</v>
+      </c>
+      <c r="J60">
+        <v>-0.07998426392862169</v>
+      </c>
+      <c r="K60">
+        <v>0.2554328479819781</v>
+      </c>
+      <c r="L60">
+        <v>0.0705879328725634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09170306293665217</v>
+        <v>0.101254175951077</v>
       </c>
       <c r="C61">
-        <v>-0.03322018754240476</v>
+        <v>0.05021492977956075</v>
       </c>
       <c r="D61">
-        <v>-0.002583559710711849</v>
+        <v>-0.02379582282471953</v>
       </c>
       <c r="E61">
-        <v>0.00185942265586103</v>
+        <v>0.0488756934702238</v>
       </c>
       <c r="F61">
-        <v>-0.01518682439514298</v>
+        <v>0.1352059013938171</v>
       </c>
       <c r="G61">
-        <v>0.04397859849547709</v>
+        <v>0.08464181173118249</v>
       </c>
       <c r="H61">
-        <v>-0.001287732103337055</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.01890390450572736</v>
+      </c>
+      <c r="I61">
+        <v>-0.01740720217856868</v>
+      </c>
+      <c r="J61">
+        <v>0.1131332233949806</v>
+      </c>
+      <c r="K61">
+        <v>-0.02981209409585079</v>
+      </c>
+      <c r="L61">
+        <v>0.044523152276684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1462382538229861</v>
+        <v>0.1478664699517303</v>
       </c>
       <c r="C62">
-        <v>-0.02220501674276661</v>
+        <v>0.05732356662770902</v>
       </c>
       <c r="D62">
-        <v>0.02570045816478831</v>
+        <v>-0.01994459210502195</v>
       </c>
       <c r="E62">
-        <v>0.1554010484299144</v>
+        <v>0.02270632856455936</v>
       </c>
       <c r="F62">
-        <v>-0.2239842689279643</v>
+        <v>-0.05004959623169059</v>
       </c>
       <c r="G62">
-        <v>-0.001530224359559361</v>
+        <v>0.1129460137483073</v>
       </c>
       <c r="H62">
-        <v>0.09584682827677693</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1440715411199694</v>
+      </c>
+      <c r="I62">
+        <v>-0.1850943502282277</v>
+      </c>
+      <c r="J62">
+        <v>-0.1106313756167898</v>
+      </c>
+      <c r="K62">
+        <v>0.01042805173844823</v>
+      </c>
+      <c r="L62">
+        <v>-0.02835869206821962</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.04153821164912047</v>
+        <v>0.04428069985952791</v>
       </c>
       <c r="C63">
-        <v>-0.024034305855941</v>
+        <v>0.02460778417891472</v>
       </c>
       <c r="D63">
-        <v>0.006287541989975257</v>
+        <v>0.01514336630374</v>
       </c>
       <c r="E63">
-        <v>-0.0002302308370415465</v>
+        <v>0.01021674333413876</v>
       </c>
       <c r="F63">
-        <v>-0.01495597290336154</v>
+        <v>0.06656504264139783</v>
       </c>
       <c r="G63">
-        <v>0.00585016770962755</v>
+        <v>0.006510084592972274</v>
       </c>
       <c r="H63">
-        <v>0.07375755059133988</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.007843243583522331</v>
+      </c>
+      <c r="I63">
+        <v>0.009091162909592486</v>
+      </c>
+      <c r="J63">
+        <v>-0.002270994236373677</v>
+      </c>
+      <c r="K63">
+        <v>-0.0377353771201851</v>
+      </c>
+      <c r="L63">
+        <v>0.04450085784371664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1067762040037861</v>
+        <v>0.09781441367350802</v>
       </c>
       <c r="C64">
-        <v>-0.01948827512611843</v>
+        <v>0.04226566852546394</v>
       </c>
       <c r="D64">
-        <v>-0.04280556085284937</v>
+        <v>-0.05066601718189517</v>
       </c>
       <c r="E64">
-        <v>-0.04349875555133872</v>
+        <v>-0.01660893746092306</v>
       </c>
       <c r="F64">
-        <v>0.00991008183989428</v>
+        <v>0.06593849390950246</v>
       </c>
       <c r="G64">
-        <v>0.07113727722204574</v>
+        <v>0.03390824165089466</v>
       </c>
       <c r="H64">
-        <v>-0.02835849550291566</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06101028258468431</v>
+      </c>
+      <c r="I64">
+        <v>0.07593558708380831</v>
+      </c>
+      <c r="J64">
+        <v>0.02252771235117158</v>
+      </c>
+      <c r="K64">
+        <v>0.01113890934001876</v>
+      </c>
+      <c r="L64">
+        <v>0.0004260622413335432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1231637086017033</v>
+        <v>0.1246004059708223</v>
       </c>
       <c r="C65">
-        <v>-0.03685750239013754</v>
+        <v>0.04918474473329857</v>
       </c>
       <c r="D65">
-        <v>-0.0318727970628109</v>
+        <v>0.01466164363538656</v>
       </c>
       <c r="E65">
-        <v>-0.08476343498809466</v>
+        <v>0.01564155921477927</v>
       </c>
       <c r="F65">
-        <v>0.1797522686964903</v>
+        <v>-0.03329952652372684</v>
       </c>
       <c r="G65">
-        <v>-0.2210711590202446</v>
+        <v>-0.05273375054097795</v>
       </c>
       <c r="H65">
-        <v>0.3442762230077001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.03449279514877866</v>
+      </c>
+      <c r="I65">
+        <v>0.3320451482649234</v>
+      </c>
+      <c r="J65">
+        <v>-0.5064084402645042</v>
+      </c>
+      <c r="K65">
+        <v>0.1586680025255154</v>
+      </c>
+      <c r="L65">
+        <v>0.3451353904193883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1623515107624149</v>
+        <v>0.1389065857706309</v>
       </c>
       <c r="C66">
-        <v>-0.08136810760184483</v>
+        <v>0.1124703753565015</v>
       </c>
       <c r="D66">
-        <v>0.0179480004757408</v>
+        <v>-0.01157404688568482</v>
       </c>
       <c r="E66">
-        <v>0.02256654488261891</v>
+        <v>0.1082211964579158</v>
       </c>
       <c r="F66">
-        <v>-0.02719752370762869</v>
+        <v>0.1555076635905874</v>
       </c>
       <c r="G66">
-        <v>0.2511030821628479</v>
+        <v>0.1348109405670708</v>
       </c>
       <c r="H66">
-        <v>0.01736499201636194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1095969478924299</v>
+      </c>
+      <c r="I66">
+        <v>-0.03675816599674957</v>
+      </c>
+      <c r="J66">
+        <v>0.2095897772012683</v>
+      </c>
+      <c r="K66">
+        <v>0.1023574465325493</v>
+      </c>
+      <c r="L66">
+        <v>0.02866929713961962</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09444494058584349</v>
+        <v>0.06990711077341971</v>
       </c>
       <c r="C67">
-        <v>-0.04101316825376754</v>
+        <v>0.04251848225203974</v>
       </c>
       <c r="D67">
-        <v>-0.01037534451062827</v>
+        <v>-0.00527270100512392</v>
       </c>
       <c r="E67">
-        <v>0.003667915897832373</v>
+        <v>-0.01962442569480956</v>
       </c>
       <c r="F67">
-        <v>-0.004288314328860636</v>
+        <v>-0.03495848246476351</v>
       </c>
       <c r="G67">
-        <v>0.03738937476875581</v>
+        <v>0.02024579410948373</v>
       </c>
       <c r="H67">
-        <v>-0.05315271188700003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.009396785279389565</v>
+      </c>
+      <c r="I67">
+        <v>0.03274065847062765</v>
+      </c>
+      <c r="J67">
+        <v>0.05505714449569786</v>
+      </c>
+      <c r="K67">
+        <v>0.01199438011022373</v>
+      </c>
+      <c r="L67">
+        <v>-0.1120956465364315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.05886903910844922</v>
+        <v>0.1096296471668474</v>
       </c>
       <c r="C68">
-        <v>0.2986828312988842</v>
+        <v>-0.2774313191721247</v>
       </c>
       <c r="D68">
-        <v>-0.0262395502435393</v>
+        <v>0.02829031310255328</v>
       </c>
       <c r="E68">
-        <v>-0.01616671692053426</v>
+        <v>0.01288832188364175</v>
       </c>
       <c r="F68">
-        <v>-0.0106516657720235</v>
+        <v>0.04197266107658459</v>
       </c>
       <c r="G68">
-        <v>-0.03540465623446873</v>
+        <v>0.01261366538871899</v>
       </c>
       <c r="H68">
-        <v>0.04317965273318957</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.01961342224483416</v>
+      </c>
+      <c r="I68">
+        <v>0.01849053324356145</v>
+      </c>
+      <c r="J68">
+        <v>-0.03182761314352368</v>
+      </c>
+      <c r="K68">
+        <v>-0.008943212340220944</v>
+      </c>
+      <c r="L68">
+        <v>0.05157748412971581</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.04403514641847744</v>
+        <v>0.04136014409127667</v>
       </c>
       <c r="C69">
-        <v>-0.01918691626299227</v>
+        <v>0.006725123948348308</v>
       </c>
       <c r="D69">
-        <v>-0.006104780590943607</v>
+        <v>-0.01132904820658064</v>
       </c>
       <c r="E69">
-        <v>-0.007940423243000197</v>
+        <v>-0.004455104706924472</v>
       </c>
       <c r="F69">
-        <v>-0.01973433595638406</v>
+        <v>0.01411686657849212</v>
       </c>
       <c r="G69">
-        <v>0.02952069905171941</v>
+        <v>0.03783187711680339</v>
       </c>
       <c r="H69">
-        <v>0.02293229515487301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02254696543919921</v>
+      </c>
+      <c r="I69">
+        <v>0.01390248349037276</v>
+      </c>
+      <c r="J69">
+        <v>-0.001509132264020956</v>
+      </c>
+      <c r="K69">
+        <v>-0.02148497002664452</v>
+      </c>
+      <c r="L69">
+        <v>-0.00280502673511854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.07285210317804772</v>
+        <v>0.04964269440757354</v>
       </c>
       <c r="C70">
-        <v>-0.00818415202082241</v>
+        <v>0.01472968923322253</v>
       </c>
       <c r="D70">
-        <v>-0.03647079796809618</v>
+        <v>-0.03401571004593276</v>
       </c>
       <c r="E70">
-        <v>0.01495570966902442</v>
+        <v>0.02500449198227033</v>
       </c>
       <c r="F70">
-        <v>0.09441070701572678</v>
+        <v>0.00941999416826342</v>
       </c>
       <c r="G70">
-        <v>-0.04508021395341708</v>
+        <v>-0.01230133166143726</v>
       </c>
       <c r="H70">
-        <v>-0.05614340799442612</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.01363690680756367</v>
+      </c>
+      <c r="I70">
+        <v>0.1253585277018565</v>
+      </c>
+      <c r="J70">
+        <v>-0.09915590118831233</v>
+      </c>
+      <c r="K70">
+        <v>-0.2900509406234498</v>
+      </c>
+      <c r="L70">
+        <v>-0.1518062968539552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.06815978322839499</v>
+        <v>0.1250514584538278</v>
       </c>
       <c r="C71">
-        <v>0.2908057197245904</v>
+        <v>-0.287673729082381</v>
       </c>
       <c r="D71">
-        <v>-0.05679628448541232</v>
+        <v>-0.0032191984912487</v>
       </c>
       <c r="E71">
-        <v>-0.007633276798135729</v>
+        <v>0.001699098822824334</v>
       </c>
       <c r="F71">
-        <v>0.009217557108720534</v>
+        <v>0.04899638781271896</v>
       </c>
       <c r="G71">
-        <v>-0.01250041399030974</v>
+        <v>0.03932909460985513</v>
       </c>
       <c r="H71">
-        <v>0.01350100331725539</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.00895311169691689</v>
+      </c>
+      <c r="I71">
+        <v>0.02109377241096254</v>
+      </c>
+      <c r="J71">
+        <v>0.004576493546248507</v>
+      </c>
+      <c r="K71">
+        <v>0.00838058367771324</v>
+      </c>
+      <c r="L71">
+        <v>0.03334867796067138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.160882586993407</v>
+        <v>0.149005205116843</v>
       </c>
       <c r="C72">
-        <v>0.01795129585096686</v>
+        <v>0.02455852031382721</v>
       </c>
       <c r="D72">
-        <v>0.2382268933901584</v>
+        <v>0.09461179713520379</v>
       </c>
       <c r="E72">
-        <v>0.02590210436465709</v>
+        <v>0.0280132721401005</v>
       </c>
       <c r="F72">
-        <v>-0.0525680153406017</v>
+        <v>-0.000284461359928565</v>
       </c>
       <c r="G72">
-        <v>0.06654889882322994</v>
+        <v>0.06947180526663536</v>
       </c>
       <c r="H72">
-        <v>0.07612905164197561</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.03884698378571371</v>
+      </c>
+      <c r="I72">
+        <v>-0.03808246117124623</v>
+      </c>
+      <c r="J72">
+        <v>-0.1071220886956849</v>
+      </c>
+      <c r="K72">
+        <v>0.1150293230281093</v>
+      </c>
+      <c r="L72">
+        <v>-0.001728694451271329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2917134825695457</v>
+        <v>0.2385567856298045</v>
       </c>
       <c r="C73">
-        <v>-0.1702739251405665</v>
+        <v>0.1211764460723107</v>
       </c>
       <c r="D73">
-        <v>-0.08053459743835424</v>
+        <v>-0.1619273027864229</v>
       </c>
       <c r="E73">
-        <v>0.09000139396047799</v>
+        <v>0.109701214259379</v>
       </c>
       <c r="F73">
-        <v>0.3025058252262268</v>
+        <v>-0.4440276594161174</v>
       </c>
       <c r="G73">
-        <v>-0.1196991066919913</v>
+        <v>-0.01748836195584384</v>
       </c>
       <c r="H73">
-        <v>-0.1445725433514229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2416017300527062</v>
+      </c>
+      <c r="I73">
+        <v>0.140442726784727</v>
+      </c>
+      <c r="J73">
+        <v>0.2782129279531009</v>
+      </c>
+      <c r="K73">
+        <v>0.1871070230927187</v>
+      </c>
+      <c r="L73">
+        <v>0.08239312363387086</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.0945025753025656</v>
+        <v>0.1078432680526075</v>
       </c>
       <c r="C74">
-        <v>-0.03354971046166742</v>
+        <v>0.07075390199275236</v>
       </c>
       <c r="D74">
-        <v>-0.004730688454165845</v>
+        <v>-0.009297975106752527</v>
       </c>
       <c r="E74">
-        <v>0.03258834367615728</v>
+        <v>0.007087968434948125</v>
       </c>
       <c r="F74">
-        <v>-0.0911859128980408</v>
+        <v>-0.04068623730025629</v>
       </c>
       <c r="G74">
-        <v>-0.0463133766759709</v>
+        <v>0.122583543623553</v>
       </c>
       <c r="H74">
-        <v>0.05971744636477753</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.08225861601498013</v>
+      </c>
+      <c r="I74">
+        <v>-0.07291809375557025</v>
+      </c>
+      <c r="J74">
+        <v>-0.01675843535102486</v>
+      </c>
+      <c r="K74">
+        <v>0.007409459195006171</v>
+      </c>
+      <c r="L74">
+        <v>0.001881909156842972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09561677578103972</v>
+        <v>0.1006073372409559</v>
       </c>
       <c r="C75">
-        <v>-0.01705656923226627</v>
+        <v>0.04927258483627966</v>
       </c>
       <c r="D75">
-        <v>0.009539297831132294</v>
+        <v>-0.002465508524267824</v>
       </c>
       <c r="E75">
-        <v>0.03608950757409628</v>
+        <v>0.005321209352905044</v>
       </c>
       <c r="F75">
-        <v>-0.1109439274456391</v>
+        <v>-0.0281208627833533</v>
       </c>
       <c r="G75">
-        <v>-0.04903119989969325</v>
+        <v>0.04367830903213803</v>
       </c>
       <c r="H75">
-        <v>0.02405570094133913</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1122894539376154</v>
+      </c>
+      <c r="I75">
+        <v>-0.08311033423311073</v>
+      </c>
+      <c r="J75">
+        <v>-0.03574999808606284</v>
+      </c>
+      <c r="K75">
+        <v>0.01500927040445019</v>
+      </c>
+      <c r="L75">
+        <v>-0.01063968138739456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1330089720745442</v>
+        <v>0.06844928045270612</v>
       </c>
       <c r="C76">
-        <v>-0.03944906584431119</v>
+        <v>0.03883301864293032</v>
       </c>
       <c r="D76">
-        <v>-0.01191305108259268</v>
+        <v>-0.03112745656112086</v>
       </c>
       <c r="E76">
-        <v>0.03806632273831652</v>
+        <v>-0.002723458487773488</v>
       </c>
       <c r="F76">
-        <v>-0.2146193417432588</v>
+        <v>-0.06269286281564342</v>
       </c>
       <c r="G76">
-        <v>-0.08447435657724482</v>
+        <v>0.0565311224989026</v>
       </c>
       <c r="H76">
-        <v>0.04285693990467385</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1495617557760757</v>
+      </c>
+      <c r="I76">
+        <v>-0.09862058929323593</v>
+      </c>
+      <c r="J76">
+        <v>0.01823592385759886</v>
+      </c>
+      <c r="K76">
+        <v>-0.03593894968943845</v>
+      </c>
+      <c r="L76">
+        <v>0.003580520342247533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.07855980541972127</v>
+        <v>0.07271568455169637</v>
       </c>
       <c r="C77">
-        <v>-0.02172099087977047</v>
+        <v>0.03367238699877172</v>
       </c>
       <c r="D77">
-        <v>-0.02539832304478709</v>
+        <v>-0.03501101912799211</v>
       </c>
       <c r="E77">
-        <v>-0.1133536563263218</v>
+        <v>0.008953409218522291</v>
       </c>
       <c r="F77">
-        <v>0.1718484539437329</v>
+        <v>0.2713757538913407</v>
       </c>
       <c r="G77">
-        <v>0.6205298800968674</v>
+        <v>-0.04197393734264186</v>
       </c>
       <c r="H77">
-        <v>-0.2431884625157412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.0542747229187908</v>
+      </c>
+      <c r="I77">
+        <v>0.2433859525119183</v>
+      </c>
+      <c r="J77">
+        <v>-0.01226433399664411</v>
+      </c>
+      <c r="K77">
+        <v>0.4315088059402483</v>
+      </c>
+      <c r="L77">
+        <v>-0.5533601459372519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1942607142070704</v>
+        <v>0.1584478919055331</v>
       </c>
       <c r="C78">
-        <v>-0.07543597371990728</v>
+        <v>0.1153150540232028</v>
       </c>
       <c r="D78">
-        <v>-0.04349602685127216</v>
+        <v>0.04101151555212778</v>
       </c>
       <c r="E78">
-        <v>-0.2034616993161487</v>
+        <v>-0.1799904826882633</v>
       </c>
       <c r="F78">
-        <v>-0.03893397930432254</v>
+        <v>0.1756333500037913</v>
       </c>
       <c r="G78">
-        <v>0.07742266426789327</v>
+        <v>-0.7252833895180502</v>
       </c>
       <c r="H78">
-        <v>-0.05484931724083026</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4291672613779454</v>
+      </c>
+      <c r="I78">
+        <v>-0.06711158602437785</v>
+      </c>
+      <c r="J78">
+        <v>0.2272990377675433</v>
+      </c>
+      <c r="K78">
+        <v>0.1406115557320518</v>
+      </c>
+      <c r="L78">
+        <v>0.1273263621353714</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1357639557719242</v>
+        <v>0.1352701040862488</v>
       </c>
       <c r="C79">
-        <v>-0.02031872912187473</v>
+        <v>0.05685998260966488</v>
       </c>
       <c r="D79">
-        <v>0.005913048129629997</v>
+        <v>-0.01894353426073862</v>
       </c>
       <c r="E79">
-        <v>0.04855348549417508</v>
+        <v>-0.004074647066620534</v>
       </c>
       <c r="F79">
-        <v>-0.1620288014380727</v>
+        <v>0.0002316209209712982</v>
       </c>
       <c r="G79">
-        <v>-0.01259281241209763</v>
+        <v>0.1131534106009773</v>
       </c>
       <c r="H79">
-        <v>0.07292082269621537</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1084788560837006</v>
+      </c>
+      <c r="I79">
+        <v>-0.1229860962333295</v>
+      </c>
+      <c r="J79">
+        <v>-0.06193544572309774</v>
+      </c>
+      <c r="K79">
+        <v>0.01786363201062019</v>
+      </c>
+      <c r="L79">
+        <v>-0.004332289584144712</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.0369764569468158</v>
+        <v>0.05995948370995802</v>
       </c>
       <c r="C80">
-        <v>-0.01476828845185097</v>
+        <v>0.03072339620195035</v>
       </c>
       <c r="D80">
-        <v>-0.007247864024311373</v>
+        <v>-0.02487741965248397</v>
       </c>
       <c r="E80">
-        <v>0.04812824509871249</v>
+        <v>0.06563128769303224</v>
       </c>
       <c r="F80">
-        <v>0.03612366787529724</v>
+        <v>0.03278472316519859</v>
       </c>
       <c r="G80">
-        <v>0.00220733032520408</v>
+        <v>0.004627209227097743</v>
       </c>
       <c r="H80">
-        <v>0.06666072341540538</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.0588736622729138</v>
+      </c>
+      <c r="I80">
+        <v>0.09760224497653262</v>
+      </c>
+      <c r="J80">
+        <v>-0.03068724573364182</v>
+      </c>
+      <c r="K80">
+        <v>-0.1678871423014718</v>
+      </c>
+      <c r="L80">
+        <v>0.08575852521749196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1070823559540197</v>
+        <v>0.1259745071628374</v>
       </c>
       <c r="C81">
-        <v>-0.02374234678716221</v>
+        <v>0.06062011088789786</v>
       </c>
       <c r="D81">
-        <v>-0.01197922874609676</v>
+        <v>-0.02584843226486376</v>
       </c>
       <c r="E81">
-        <v>0.0562698891446343</v>
+        <v>-0.0047418454361898</v>
       </c>
       <c r="F81">
-        <v>-0.126984031889846</v>
+        <v>0.008503370988787846</v>
       </c>
       <c r="G81">
-        <v>-0.02140449717852554</v>
+        <v>0.07115636954754875</v>
       </c>
       <c r="H81">
-        <v>-0.02928211071154799</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.06975061142671748</v>
+      </c>
+      <c r="I81">
+        <v>-0.111171899775405</v>
+      </c>
+      <c r="J81">
+        <v>-0.03490120409551935</v>
+      </c>
+      <c r="K81">
+        <v>0.003341409096219564</v>
+      </c>
+      <c r="L81">
+        <v>-0.0159435956175997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1108238845592125</v>
+        <v>0.1333152511516979</v>
       </c>
       <c r="C82">
-        <v>-0.02823251800774749</v>
+        <v>0.04457446868080332</v>
       </c>
       <c r="D82">
-        <v>-0.06273208381273969</v>
+        <v>-0.04490409811807473</v>
       </c>
       <c r="E82">
-        <v>0.09744253596767595</v>
+        <v>0.01199895905364758</v>
       </c>
       <c r="F82">
-        <v>-0.2211408914231836</v>
+        <v>-0.03360546842473892</v>
       </c>
       <c r="G82">
-        <v>-0.01260534625631537</v>
+        <v>0.1588498153452975</v>
       </c>
       <c r="H82">
-        <v>0.08350424238582539</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1427987074987881</v>
+      </c>
+      <c r="I82">
+        <v>-0.1914012620052761</v>
+      </c>
+      <c r="J82">
+        <v>-0.03107064650819172</v>
+      </c>
+      <c r="K82">
+        <v>-0.07038654528311079</v>
+      </c>
+      <c r="L82">
+        <v>-0.06561812407950121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.09713911719681753</v>
+        <v>0.09378080065444133</v>
       </c>
       <c r="C83">
-        <v>-0.06693825321434836</v>
+        <v>0.1135762991377852</v>
       </c>
       <c r="D83">
-        <v>-0.05648022954879546</v>
+        <v>-0.02379240803640636</v>
       </c>
       <c r="E83">
-        <v>0.0007187676842083018</v>
+        <v>0.01120610508890214</v>
       </c>
       <c r="F83">
-        <v>0.07462158795447901</v>
+        <v>0.07978402708260264</v>
       </c>
       <c r="G83">
-        <v>0.0339319459559959</v>
+        <v>0.02608337352265401</v>
       </c>
       <c r="H83">
-        <v>0.03531718090076344</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.06442261563421835</v>
+      </c>
+      <c r="I83">
+        <v>0.152956606221498</v>
+      </c>
+      <c r="J83">
+        <v>0.0219893106447859</v>
+      </c>
+      <c r="K83">
+        <v>-0.1657497713871539</v>
+      </c>
+      <c r="L83">
+        <v>-0.1003763318161516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05964642922104094</v>
+        <v>0.05232235282112509</v>
       </c>
       <c r="C84">
-        <v>-0.04759799328885365</v>
+        <v>-0.03464912236442379</v>
       </c>
       <c r="D84">
-        <v>0.04607079863132094</v>
+        <v>-0.006023008633296053</v>
       </c>
       <c r="E84">
-        <v>-0.005568366544380439</v>
+        <v>0.01607332093896239</v>
       </c>
       <c r="F84">
-        <v>-0.05067141518920228</v>
+        <v>0.00130541962881469</v>
       </c>
       <c r="G84">
-        <v>-0.1333487279565999</v>
+        <v>-0.1751902876690543</v>
       </c>
       <c r="H84">
-        <v>0.02813182018234789</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2214942914740171</v>
+      </c>
+      <c r="I84">
+        <v>-0.2038381776023517</v>
+      </c>
+      <c r="J84">
+        <v>0.1423232263856986</v>
+      </c>
+      <c r="K84">
+        <v>-0.1603016313043285</v>
+      </c>
+      <c r="L84">
+        <v>0.1323104547243201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.1006542067398395</v>
+        <v>0.1142070956447327</v>
       </c>
       <c r="C85">
-        <v>-0.03418196376004887</v>
+        <v>0.04579338677474754</v>
       </c>
       <c r="D85">
-        <v>-0.02688758588967124</v>
+        <v>-0.04829446032698653</v>
       </c>
       <c r="E85">
-        <v>0.05195826420249744</v>
+        <v>5.261398130989664e-06</v>
       </c>
       <c r="F85">
-        <v>-0.187080353921729</v>
+        <v>0.002894870359036695</v>
       </c>
       <c r="G85">
-        <v>0.007633145489336996</v>
+        <v>0.1029779366597526</v>
       </c>
       <c r="H85">
-        <v>0.1032428741782795</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1127102409234732</v>
+      </c>
+      <c r="I85">
+        <v>-0.1264665294181762</v>
+      </c>
+      <c r="J85">
+        <v>-0.06217712741639342</v>
+      </c>
+      <c r="K85">
+        <v>0.04844056661835717</v>
+      </c>
+      <c r="L85">
+        <v>-0.01258439586811663</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.06035851487982805</v>
+        <v>0.08036748497850291</v>
       </c>
       <c r="C86">
-        <v>-0.03823052505295952</v>
+        <v>0.0257891657998373</v>
       </c>
       <c r="D86">
-        <v>-0.04093572400608724</v>
+        <v>-0.107086126456654</v>
       </c>
       <c r="E86">
-        <v>-0.03746570980995814</v>
+        <v>-0.03821805346776527</v>
       </c>
       <c r="F86">
-        <v>0.03078382985972595</v>
+        <v>0.04310331982723598</v>
       </c>
       <c r="G86">
-        <v>0.04168386524781041</v>
+        <v>-0.3041501768466712</v>
       </c>
       <c r="H86">
-        <v>0.08610616710414076</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.4809995551960285</v>
+      </c>
+      <c r="I86">
+        <v>-0.5175772173119417</v>
+      </c>
+      <c r="J86">
+        <v>-0.3932520822739743</v>
+      </c>
+      <c r="K86">
+        <v>-0.006582970134407813</v>
+      </c>
+      <c r="L86">
+        <v>-0.05575239860692783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.09893887319736121</v>
+        <v>0.1158926124903203</v>
       </c>
       <c r="C87">
-        <v>-0.04582318623542542</v>
+        <v>0.09906459266560627</v>
       </c>
       <c r="D87">
-        <v>-0.01391954821894058</v>
+        <v>-0.03485221932923187</v>
       </c>
       <c r="E87">
-        <v>-0.08097102402764539</v>
+        <v>-0.02856343408733304</v>
       </c>
       <c r="F87">
-        <v>-0.006375504906362977</v>
+        <v>0.1250307106120349</v>
       </c>
       <c r="G87">
-        <v>0.134281247826478</v>
+        <v>-0.02379555876648277</v>
       </c>
       <c r="H87">
-        <v>0.03132584439013118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.07878623950605521</v>
+      </c>
+      <c r="I87">
+        <v>0.08732970047922251</v>
+      </c>
+      <c r="J87">
+        <v>-0.1137444400188805</v>
+      </c>
+      <c r="K87">
+        <v>0.01974106269364699</v>
+      </c>
+      <c r="L87">
+        <v>-0.2895064949450544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.0638444520457364</v>
+        <v>0.05544349589039606</v>
       </c>
       <c r="C88">
-        <v>-0.03610444286156805</v>
+        <v>0.04839132398789556</v>
       </c>
       <c r="D88">
-        <v>-0.02376592081920003</v>
+        <v>-0.03091702940350573</v>
       </c>
       <c r="E88">
-        <v>-0.005938903492308582</v>
+        <v>0.02770535035160869</v>
       </c>
       <c r="F88">
-        <v>0.003228541082633857</v>
+        <v>0.03062241365364499</v>
       </c>
       <c r="G88">
-        <v>0.04227982453370721</v>
+        <v>0.04487675596301748</v>
       </c>
       <c r="H88">
-        <v>0.008740273899905985</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.007864632545952786</v>
+      </c>
+      <c r="I88">
+        <v>0.02574507425943632</v>
+      </c>
+      <c r="J88">
+        <v>0.03399802435273536</v>
+      </c>
+      <c r="K88">
+        <v>-0.04083419749655878</v>
+      </c>
+      <c r="L88">
+        <v>0.05750668483715467</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1219279711009648</v>
+        <v>0.1839803225817143</v>
       </c>
       <c r="C89">
-        <v>0.3486593316963998</v>
+        <v>-0.3699164076620974</v>
       </c>
       <c r="D89">
-        <v>-0.1048985169291982</v>
+        <v>-0.02321981109387081</v>
       </c>
       <c r="E89">
-        <v>-0.06191789932787004</v>
+        <v>-0.05057929529211695</v>
       </c>
       <c r="F89">
-        <v>0.05821876092147808</v>
+        <v>0.02193247339555357</v>
       </c>
       <c r="G89">
-        <v>0.01855842493743967</v>
+        <v>-0.0345162053099378</v>
       </c>
       <c r="H89">
-        <v>0.02935164683610598</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01412036763598266</v>
+      </c>
+      <c r="I89">
+        <v>0.06714326496947194</v>
+      </c>
+      <c r="J89">
+        <v>0.03707692778636198</v>
+      </c>
+      <c r="K89">
+        <v>-0.05925204963999207</v>
+      </c>
+      <c r="L89">
+        <v>-0.01313826637473614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.09566697927055394</v>
+        <v>0.1418821781167079</v>
       </c>
       <c r="C90">
-        <v>0.2751300930682271</v>
+        <v>-0.2724909747348173</v>
       </c>
       <c r="D90">
-        <v>-0.04856998864573466</v>
+        <v>-0.006969460230017115</v>
       </c>
       <c r="E90">
-        <v>-0.06258498837210122</v>
+        <v>-0.001625569542824328</v>
       </c>
       <c r="F90">
-        <v>0.03760058600755801</v>
+        <v>0.03997385099501898</v>
       </c>
       <c r="G90">
-        <v>0.08662360834329424</v>
+        <v>0.02008051472354038</v>
       </c>
       <c r="H90">
-        <v>-0.01203757799926529</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06229677442015509</v>
+      </c>
+      <c r="I90">
+        <v>0.02254009610636996</v>
+      </c>
+      <c r="J90">
+        <v>0.03467817335376294</v>
+      </c>
+      <c r="K90">
+        <v>0.03147144685018167</v>
+      </c>
+      <c r="L90">
+        <v>0.0174922687494011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.08189768947924901</v>
+        <v>0.0809160747423134</v>
       </c>
       <c r="C91">
-        <v>-0.0229378036820273</v>
+        <v>0.0433521366861574</v>
       </c>
       <c r="D91">
-        <v>-0.005609316803517575</v>
+        <v>-0.02964626163555838</v>
       </c>
       <c r="E91">
-        <v>0.02573712475976202</v>
+        <v>-0.005537472047565922</v>
       </c>
       <c r="F91">
-        <v>-0.06708178150342546</v>
+        <v>-0.02326004021238496</v>
       </c>
       <c r="G91">
-        <v>-0.06425887375459408</v>
+        <v>0.06099189215926371</v>
       </c>
       <c r="H91">
-        <v>0.00368677532727082</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06663394810652781</v>
+      </c>
+      <c r="I91">
+        <v>-0.07645529905058422</v>
+      </c>
+      <c r="J91">
+        <v>-0.01519934553142415</v>
+      </c>
+      <c r="K91">
+        <v>-0.00285854467680355</v>
+      </c>
+      <c r="L91">
+        <v>0.00234100437967959</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.1003627730469184</v>
+        <v>0.1574297529390289</v>
       </c>
       <c r="C92">
-        <v>0.3303404437000206</v>
+        <v>-0.3276277200627541</v>
       </c>
       <c r="D92">
-        <v>-0.07619606108398343</v>
+        <v>0.001844935412320239</v>
       </c>
       <c r="E92">
-        <v>-0.05273450081810258</v>
+        <v>-0.04317601805254546</v>
       </c>
       <c r="F92">
-        <v>0.007393565875666522</v>
+        <v>0.05283577363885433</v>
       </c>
       <c r="G92">
-        <v>-0.09729669834521065</v>
+        <v>0.01284544872655253</v>
       </c>
       <c r="H92">
-        <v>0.02170234728031586</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.041944178894816</v>
+      </c>
+      <c r="I92">
+        <v>-0.005958076889896344</v>
+      </c>
+      <c r="J92">
+        <v>0.04536382697567762</v>
+      </c>
+      <c r="K92">
+        <v>-0.04331324397288281</v>
+      </c>
+      <c r="L92">
+        <v>0.05068607711150213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.1075846156354715</v>
+        <v>0.1478279368555721</v>
       </c>
       <c r="C93">
-        <v>0.2792793484086784</v>
+        <v>-0.3053183707815361</v>
       </c>
       <c r="D93">
-        <v>-0.04954733936388993</v>
+        <v>-0.01731189453988667</v>
       </c>
       <c r="E93">
-        <v>-0.02202424766877538</v>
+        <v>0.02500588016063127</v>
       </c>
       <c r="F93">
-        <v>0.01411413356736764</v>
+        <v>0.01489020420272884</v>
       </c>
       <c r="G93">
-        <v>0.003792474293348365</v>
+        <v>0.01715392552271632</v>
       </c>
       <c r="H93">
-        <v>-0.01263866398767478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.05183670605931531</v>
+      </c>
+      <c r="I93">
+        <v>-0.007956811685915688</v>
+      </c>
+      <c r="J93">
+        <v>-0.03241009338544934</v>
+      </c>
+      <c r="K93">
+        <v>-0.01306490549458762</v>
+      </c>
+      <c r="L93">
+        <v>0.006695790116926571</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09062167968936252</v>
+        <v>0.1193572520994336</v>
       </c>
       <c r="C94">
-        <v>-0.04343493409567215</v>
+        <v>0.06092608889489012</v>
       </c>
       <c r="D94">
-        <v>0.0003346929017709165</v>
+        <v>-0.02074680472399784</v>
       </c>
       <c r="E94">
-        <v>0.03253051206456017</v>
+        <v>-0.01235837531633927</v>
       </c>
       <c r="F94">
-        <v>-0.1269227812568827</v>
+        <v>-0.03567460155275058</v>
       </c>
       <c r="G94">
-        <v>-0.05650343311638688</v>
+        <v>0.0863490656971579</v>
       </c>
       <c r="H94">
-        <v>0.06292034287190189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.08810943212471453</v>
+      </c>
+      <c r="I94">
+        <v>-0.09269739284042242</v>
+      </c>
+      <c r="J94">
+        <v>-0.004705877443616502</v>
+      </c>
+      <c r="K94">
+        <v>0.004090043593748388</v>
+      </c>
+      <c r="L94">
+        <v>0.03936871112621004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1307452439372542</v>
+        <v>0.1201072355131881</v>
       </c>
       <c r="C95">
-        <v>-0.07163700144824416</v>
+        <v>0.06616878771975249</v>
       </c>
       <c r="D95">
-        <v>-0.07005951801763029</v>
+        <v>-0.0457165031168132</v>
       </c>
       <c r="E95">
-        <v>-0.03411690749171738</v>
+        <v>-0.02131992889272355</v>
       </c>
       <c r="F95">
-        <v>0.05645251294335409</v>
+        <v>0.06179714927980667</v>
       </c>
       <c r="G95">
-        <v>0.05997021405292406</v>
+        <v>-0.1339609771422831</v>
       </c>
       <c r="H95">
-        <v>0.118106061417734</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.1753841015189045</v>
+      </c>
+      <c r="I95">
+        <v>0.05278507432071537</v>
+      </c>
+      <c r="J95">
+        <v>-0.10113619535477</v>
+      </c>
+      <c r="K95">
+        <v>-0.08643261472929176</v>
+      </c>
+      <c r="L95">
+        <v>0.008133870719767124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.004156210831336618</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.005639902306854739</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001064177244736313</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0003591995048399177</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.005494330869868177</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.017622513651953</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.01385683485320019</v>
+      </c>
+      <c r="I96">
+        <v>0.01088239402232848</v>
+      </c>
+      <c r="J96">
+        <v>0.003203527712087053</v>
+      </c>
+      <c r="K96">
+        <v>0.01082711355003102</v>
+      </c>
+      <c r="L96">
+        <v>-0.006969369875108068</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2150015378735763</v>
+        <v>0.1897834412321532</v>
       </c>
       <c r="C97">
-        <v>0.1233804424168708</v>
+        <v>0.0685643033863448</v>
       </c>
       <c r="D97">
-        <v>0.904151552139412</v>
+        <v>0.9336201171378188</v>
       </c>
       <c r="E97">
-        <v>0.01354155218619503</v>
+        <v>0.1485640677749148</v>
       </c>
       <c r="F97">
-        <v>0.09594794900501888</v>
+        <v>-0.07803798027254726</v>
       </c>
       <c r="G97">
-        <v>4.668954032074755e-06</v>
+        <v>-0.02004941786936934</v>
       </c>
       <c r="H97">
-        <v>-0.03893100904601302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1014626634769474</v>
+      </c>
+      <c r="I97">
+        <v>-0.04876928867068524</v>
+      </c>
+      <c r="J97">
+        <v>-0.005997632742495337</v>
+      </c>
+      <c r="K97">
+        <v>0.002206538940567012</v>
+      </c>
+      <c r="L97">
+        <v>-0.05247726554182727</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.307442995077945</v>
+        <v>0.2591783014711396</v>
       </c>
       <c r="C98">
-        <v>-0.0874006920461953</v>
+        <v>0.09367432063963342</v>
       </c>
       <c r="D98">
-        <v>-0.100048076603467</v>
+        <v>-0.04592560825017535</v>
       </c>
       <c r="E98">
-        <v>0.2260834731563307</v>
+        <v>-0.01337155927118204</v>
       </c>
       <c r="F98">
-        <v>0.2484947785267343</v>
+        <v>-0.4038408313857616</v>
       </c>
       <c r="G98">
-        <v>-0.3341544654816211</v>
+        <v>-0.199182508216658</v>
       </c>
       <c r="H98">
-        <v>-0.3456366994694367</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.06560719611477338</v>
+      </c>
+      <c r="I98">
+        <v>0.199737831128198</v>
+      </c>
+      <c r="J98">
+        <v>0.04013361303293746</v>
+      </c>
+      <c r="K98">
+        <v>-0.4488199811340101</v>
+      </c>
+      <c r="L98">
+        <v>-0.320485529609764</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.08270792577797305</v>
+        <v>0.06448476287613684</v>
       </c>
       <c r="C99">
-        <v>-0.03909214837206347</v>
+        <v>0.03435728613606669</v>
       </c>
       <c r="D99">
-        <v>-0.0181352645270467</v>
+        <v>-0.02172925789796821</v>
       </c>
       <c r="E99">
-        <v>-0.01523803160640617</v>
+        <v>-0.007865567959371695</v>
       </c>
       <c r="F99">
-        <v>-0.02800223508688665</v>
+        <v>-0.01008620975065417</v>
       </c>
       <c r="G99">
-        <v>0.03630372067469372</v>
+        <v>0.01300286508229546</v>
       </c>
       <c r="H99">
-        <v>0.003628010246549869</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02501268470158839</v>
+      </c>
+      <c r="I99">
+        <v>0.00263474124126168</v>
+      </c>
+      <c r="J99">
+        <v>0.05086765990508595</v>
+      </c>
+      <c r="K99">
+        <v>0.01759238835963865</v>
+      </c>
+      <c r="L99">
+        <v>0.0007961793094051669</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.001307082437542446</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.002780308963092585</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.06570447527272327</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.01904395835443296</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03006937227096003</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.008205053744786981</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.002157789843114189</v>
+      </c>
+      <c r="I100">
+        <v>0.05821845336453102</v>
+      </c>
+      <c r="J100">
+        <v>-0.00985485803086077</v>
+      </c>
+      <c r="K100">
+        <v>-0.0738407714568529</v>
+      </c>
+      <c r="L100">
+        <v>-0.01874802560412698</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05375383425017888</v>
+        <v>0.03925810339054047</v>
       </c>
       <c r="C101">
-        <v>-0.009428345030855635</v>
+        <v>0.02481057354926142</v>
       </c>
       <c r="D101">
-        <v>-0.01537611054927017</v>
+        <v>-0.02521315725805245</v>
       </c>
       <c r="E101">
-        <v>-0.03116658392113006</v>
+        <v>0.001610912519205362</v>
       </c>
       <c r="F101">
-        <v>-0.0314151167716598</v>
+        <v>0.0587528862158111</v>
       </c>
       <c r="G101">
-        <v>-0.002515672088554741</v>
+        <v>0.02776438152350091</v>
       </c>
       <c r="H101">
-        <v>0.0331706386687383</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.0167228076434673</v>
+      </c>
+      <c r="I101">
+        <v>0.009801421676533873</v>
+      </c>
+      <c r="J101">
+        <v>-0.03690416949516476</v>
+      </c>
+      <c r="K101">
+        <v>-0.0909871772122483</v>
+      </c>
+      <c r="L101">
+        <v>0.01533774482284654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4579,22 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4617,22 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4653,18 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
